--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_SalesContract_Random2.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_SalesContract_Random2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,22 +46,37 @@
     <t>约翰逊</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>有一点儿小问题，关于付款方式，我们谈的是分两期付款，第一次是6月30号之前的预付定金，用电汇方式。第二笔是9月30号之前，用信用证的方式付款，可是合同上写的是电汇。</t>
+  </si>
+  <si>
+    <t>There is a little issue regarding the payment method. We discussed making the payment in two installments. The first one is a deposit paid via wire transfer before June 30. The second payment is to be made via letter of credit before September 30, but the contract states wire transfer.</t>
+  </si>
+  <si>
+    <t>李文俊</t>
+  </si>
+  <si>
+    <t>LiWenJun</t>
+  </si>
+  <si>
+    <t>哦，我确认一下。……是有点问题，我马上修改。</t>
+  </si>
+  <si>
+    <t>Oh, let me confirm... there is indeed a problem, I will fix it immediately.</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>有一点儿小问题，关于付款方式，我们谈的是分两期付款，第一次是6月30号之前的预付定金，用电汇方式。第二笔是9月30号之前，用信用证的方式付款，可是合同上写的是电汇。</t>
-  </si>
-  <si>
-    <t>李文俊</t>
-  </si>
-  <si>
-    <t>哦，我确认一下。……是有点问题，我马上修改。</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>下一步</t>
+  </si>
+  <si>
+    <t>Continue</t>
   </si>
 </sst>
 </file>
@@ -743,6 +758,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -998,7 +1020,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1028,35 +1050,35 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
